--- a/tut06/output/2001EE80.xlsx
+++ b/tut06/output/2001EE80.xlsx
@@ -493,7 +493,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -581,7 +581,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -603,7 +603,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -647,7 +647,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -735,7 +735,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
